--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H2">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I2">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J2">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.41437714263951</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N2">
-        <v>2.41437714263951</v>
+        <v>0.059695</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003279701059602489</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.003279701059602489</v>
       </c>
       <c r="Q2">
-        <v>45.99518454578327</v>
+        <v>0.4237869894127778</v>
       </c>
       <c r="R2">
-        <v>45.99518454578327</v>
+        <v>3.814082904715</v>
       </c>
       <c r="S2">
-        <v>0.07508827752958185</v>
+        <v>0.0002605879607196055</v>
       </c>
       <c r="T2">
-        <v>0.07508827752958185</v>
+        <v>0.0002605879607196056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.56419225180809</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H3">
-        <v>71.56419225180809</v>
+        <v>63.892837</v>
       </c>
       <c r="I3">
-        <v>0.2820724436790314</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J3">
-        <v>0.2820724436790314</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.41437714263951</v>
+        <v>2.520453</v>
       </c>
       <c r="N3">
-        <v>2.41437714263951</v>
+        <v>7.561359</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4154283796688972</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.4154283796688972</v>
       </c>
       <c r="Q3">
-        <v>172.782950004225</v>
+        <v>53.679630898387</v>
       </c>
       <c r="R3">
-        <v>172.782950004225</v>
+        <v>483.116678085483</v>
       </c>
       <c r="S3">
-        <v>0.2820724436790314</v>
+        <v>0.03300777489033983</v>
       </c>
       <c r="T3">
-        <v>0.2820724436790314</v>
+        <v>0.03300777489033983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.8952846780667</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H4">
-        <v>70.8952846780667</v>
+        <v>63.892837</v>
       </c>
       <c r="I4">
-        <v>0.2794359241015206</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J4">
-        <v>0.2794359241015206</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.41437714263951</v>
+        <v>3.526766666666667</v>
       </c>
       <c r="N4">
-        <v>2.41437714263951</v>
+        <v>10.5803</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5812919192715003</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5812919192715004</v>
       </c>
       <c r="Q4">
-        <v>171.1679548476453</v>
+        <v>75.11170925678888</v>
       </c>
       <c r="R4">
-        <v>171.1679548476453</v>
+        <v>676.0053833111</v>
       </c>
       <c r="S4">
-        <v>0.2794359241015206</v>
+        <v>0.04618642768743851</v>
       </c>
       <c r="T4">
-        <v>0.2794359241015206</v>
+        <v>0.04618642768743853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.2020737078026</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H5">
-        <v>45.2020737078026</v>
+        <v>217.624695</v>
       </c>
       <c r="I5">
-        <v>0.1781653504207258</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J5">
-        <v>0.1781653504207258</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.41437714263951</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N5">
-        <v>2.41437714263951</v>
+        <v>0.059695</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.003279701059602489</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.003279701059602489</v>
       </c>
       <c r="Q5">
-        <v>109.134853560025</v>
+        <v>1.443456240891667</v>
       </c>
       <c r="R5">
-        <v>109.134853560025</v>
+        <v>12.991106168025</v>
       </c>
       <c r="S5">
-        <v>0.1781653504207258</v>
+        <v>0.0008875858098502674</v>
       </c>
       <c r="T5">
-        <v>0.1781653504207258</v>
+        <v>0.0008875858098502678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,672 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.996466499728</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H6">
-        <v>46.996466499728</v>
+        <v>217.624695</v>
       </c>
       <c r="I6">
-        <v>0.1852380042691404</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J6">
-        <v>0.1852380042691404</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.41437714263951</v>
+        <v>2.520453</v>
       </c>
       <c r="N6">
-        <v>2.41437714263951</v>
+        <v>7.561359</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.4154283796688972</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.4154283796688972</v>
       </c>
       <c r="Q6">
-        <v>113.4671945017667</v>
+        <v>182.837605128945</v>
       </c>
       <c r="R6">
-        <v>113.4671945017667</v>
+        <v>1645.538446160505</v>
       </c>
       <c r="S6">
-        <v>0.1852380042691404</v>
+        <v>0.1124274219211594</v>
       </c>
       <c r="T6">
-        <v>0.1852380042691404</v>
+        <v>0.1124274219211594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>72.54156500000001</v>
+      </c>
+      <c r="H7">
+        <v>217.624695</v>
+      </c>
+      <c r="I7">
+        <v>0.270630095158077</v>
+      </c>
+      <c r="J7">
+        <v>0.2706300951580771</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>3.526766666666667</v>
+      </c>
+      <c r="N7">
+        <v>10.5803</v>
+      </c>
+      <c r="O7">
+        <v>0.5812919192715003</v>
+      </c>
+      <c r="P7">
+        <v>0.5812919192715004</v>
+      </c>
+      <c r="Q7">
+        <v>255.8371733898333</v>
+      </c>
+      <c r="R7">
+        <v>2302.5345605085</v>
+      </c>
+      <c r="S7">
+        <v>0.1573150874270673</v>
+      </c>
+      <c r="T7">
+        <v>0.1573150874270674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>71.11627966666667</v>
+      </c>
+      <c r="H8">
+        <v>213.348839</v>
+      </c>
+      <c r="I8">
+        <v>0.2653127973387177</v>
+      </c>
+      <c r="J8">
+        <v>0.2653127973387177</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01989833333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.059695</v>
+      </c>
+      <c r="O8">
+        <v>0.003279701059602489</v>
+      </c>
+      <c r="P8">
+        <v>0.003279701059602489</v>
+      </c>
+      <c r="Q8">
+        <v>1.415095438233889</v>
+      </c>
+      <c r="R8">
+        <v>12.735858944105</v>
+      </c>
+      <c r="S8">
+        <v>0.0008701466625578928</v>
+      </c>
+      <c r="T8">
+        <v>0.0008701466625578929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>71.11627966666667</v>
+      </c>
+      <c r="H9">
+        <v>213.348839</v>
+      </c>
+      <c r="I9">
+        <v>0.2653127973387177</v>
+      </c>
+      <c r="J9">
+        <v>0.2653127973387177</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.520453</v>
+      </c>
+      <c r="N9">
+        <v>7.561359</v>
+      </c>
+      <c r="O9">
+        <v>0.4154283796688972</v>
+      </c>
+      <c r="P9">
+        <v>0.4154283796688972</v>
+      </c>
+      <c r="Q9">
+        <v>179.245240434689</v>
+      </c>
+      <c r="R9">
+        <v>1613.207163912201</v>
+      </c>
+      <c r="S9">
+        <v>0.110218465503846</v>
+      </c>
+      <c r="T9">
+        <v>0.110218465503846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>71.11627966666667</v>
+      </c>
+      <c r="H10">
+        <v>213.348839</v>
+      </c>
+      <c r="I10">
+        <v>0.2653127973387177</v>
+      </c>
+      <c r="J10">
+        <v>0.2653127973387177</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>3.526766666666667</v>
+      </c>
+      <c r="N10">
+        <v>10.5803</v>
+      </c>
+      <c r="O10">
+        <v>0.5812919192715003</v>
+      </c>
+      <c r="P10">
+        <v>0.5812919192715004</v>
+      </c>
+      <c r="Q10">
+        <v>250.8105245857444</v>
+      </c>
+      <c r="R10">
+        <v>2257.2947212717</v>
+      </c>
+      <c r="S10">
+        <v>0.1542241851723138</v>
+      </c>
+      <c r="T10">
+        <v>0.1542241851723138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>46.85139066666667</v>
+      </c>
+      <c r="H11">
+        <v>140.554172</v>
+      </c>
+      <c r="I11">
+        <v>0.1747880172478804</v>
+      </c>
+      <c r="J11">
+        <v>0.1747880172478805</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01989833333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.059695</v>
+      </c>
+      <c r="O11">
+        <v>0.003279701059602489</v>
+      </c>
+      <c r="P11">
+        <v>0.003279701059602489</v>
+      </c>
+      <c r="Q11">
+        <v>0.9322645886155556</v>
+      </c>
+      <c r="R11">
+        <v>8.390381297539999</v>
+      </c>
+      <c r="S11">
+        <v>0.0005732524453736915</v>
+      </c>
+      <c r="T11">
+        <v>0.0005732524453736917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>46.85139066666667</v>
+      </c>
+      <c r="H12">
+        <v>140.554172</v>
+      </c>
+      <c r="I12">
+        <v>0.1747880172478804</v>
+      </c>
+      <c r="J12">
+        <v>0.1747880172478805</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.520453</v>
+      </c>
+      <c r="N12">
+        <v>7.561359</v>
+      </c>
+      <c r="O12">
+        <v>0.4154283796688972</v>
+      </c>
+      <c r="P12">
+        <v>0.4154283796688972</v>
+      </c>
+      <c r="Q12">
+        <v>118.086728159972</v>
+      </c>
+      <c r="R12">
+        <v>1062.780553439748</v>
+      </c>
+      <c r="S12">
+        <v>0.07261190279082622</v>
+      </c>
+      <c r="T12">
+        <v>0.07261190279082624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>46.85139066666667</v>
+      </c>
+      <c r="H13">
+        <v>140.554172</v>
+      </c>
+      <c r="I13">
+        <v>0.1747880172478804</v>
+      </c>
+      <c r="J13">
+        <v>0.1747880172478805</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>3.526766666666667</v>
+      </c>
+      <c r="N13">
+        <v>10.5803</v>
+      </c>
+      <c r="O13">
+        <v>0.5812919192715003</v>
+      </c>
+      <c r="P13">
+        <v>0.5812919192715004</v>
+      </c>
+      <c r="Q13">
+        <v>165.2339228901778</v>
+      </c>
+      <c r="R13">
+        <v>1487.1053060116</v>
+      </c>
+      <c r="S13">
+        <v>0.1016028620116805</v>
+      </c>
+      <c r="T13">
+        <v>0.1016028620116805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>56.240078</v>
+      </c>
+      <c r="H14">
+        <v>168.720234</v>
+      </c>
+      <c r="I14">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="J14">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01989833333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.059695</v>
+      </c>
+      <c r="O14">
+        <v>0.003279701059602489</v>
+      </c>
+      <c r="P14">
+        <v>0.003279701059602489</v>
+      </c>
+      <c r="Q14">
+        <v>1.119083818736667</v>
+      </c>
+      <c r="R14">
+        <v>10.07175436863</v>
+      </c>
+      <c r="S14">
+        <v>0.000688128181101031</v>
+      </c>
+      <c r="T14">
+        <v>0.0006881281811010312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>56.240078</v>
+      </c>
+      <c r="H15">
+        <v>168.720234</v>
+      </c>
+      <c r="I15">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="J15">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.520453</v>
+      </c>
+      <c r="N15">
+        <v>7.561359</v>
+      </c>
+      <c r="O15">
+        <v>0.4154283796688972</v>
+      </c>
+      <c r="P15">
+        <v>0.4154283796688972</v>
+      </c>
+      <c r="Q15">
+        <v>141.750473315334</v>
+      </c>
+      <c r="R15">
+        <v>1275.754259838006</v>
+      </c>
+      <c r="S15">
+        <v>0.0871628145627257</v>
+      </c>
+      <c r="T15">
+        <v>0.08716281456272573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>56.240078</v>
+      </c>
+      <c r="H16">
+        <v>168.720234</v>
+      </c>
+      <c r="I16">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="J16">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>3.526766666666667</v>
+      </c>
+      <c r="N16">
+        <v>10.5803</v>
+      </c>
+      <c r="O16">
+        <v>0.5812919192715003</v>
+      </c>
+      <c r="P16">
+        <v>0.5812919192715004</v>
+      </c>
+      <c r="Q16">
+        <v>198.3456324211333</v>
+      </c>
+      <c r="R16">
+        <v>1785.1106917902</v>
+      </c>
+      <c r="S16">
+        <v>0.1219633569730001</v>
+      </c>
+      <c r="T16">
+        <v>0.1219633569730001</v>
       </c>
     </row>
   </sheetData>
